--- a/results/outputs/urt_sim_summ_fixed.xlsx
+++ b/results/outputs/urt_sim_summ_fixed.xlsx
@@ -10,6 +10,7 @@
     <sheet name="bin" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="dunn" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="pair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="trend" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -7212,4 +7213,778 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/results/outputs/urt_sim_summ_fixed.xlsx
+++ b/results/outputs/urt_sim_summ_fixed.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).10, 0.05 (N = 100)</t>
   </si>
@@ -27,6 +27,9 @@
     <t xml:space="preserve">ANCOM-BC.10, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.10, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.10, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t xml:space="preserve">ANCOM-BC.10, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.10, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.10, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
     <t xml:space="preserve">ANCOM-BC.10, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.10, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.10, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t xml:space="preserve">ANCOM-BC.10, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.10, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.10, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -87,6 +99,9 @@
     <t xml:space="preserve">ANCOM-BC.10, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.10, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.10, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -102,6 +117,9 @@
     <t xml:space="preserve">ANCOM-BC.20, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.20, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.20, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -117,6 +135,9 @@
     <t xml:space="preserve">ANCOM-BC.20, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.20, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.20, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -132,6 +153,9 @@
     <t xml:space="preserve">ANCOM-BC.20, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.20, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.20, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -147,6 +171,9 @@
     <t xml:space="preserve">ANCOM-BC.20, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.20, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.20, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -162,6 +189,9 @@
     <t xml:space="preserve">ANCOM-BC.20, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.20, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.20, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -177,6 +207,9 @@
     <t xml:space="preserve">ANCOM-BC.30, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.30, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.30, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -192,6 +225,9 @@
     <t xml:space="preserve">ANCOM-BC.30, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.30, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.30, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -207,6 +243,9 @@
     <t xml:space="preserve">ANCOM-BC.30, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.30, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.30, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -222,6 +261,9 @@
     <t xml:space="preserve">ANCOM-BC.30, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.30, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.30, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -237,6 +279,9 @@
     <t xml:space="preserve">ANCOM-BC.30, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.30, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.30, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -252,6 +297,9 @@
     <t xml:space="preserve">ANCOM-BC.50, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.50, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.50, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -267,6 +315,9 @@
     <t xml:space="preserve">ANCOM-BC.50, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.50, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.50, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -282,6 +333,9 @@
     <t xml:space="preserve">ANCOM-BC.50, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.50, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.50, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -297,6 +351,9 @@
     <t xml:space="preserve">ANCOM-BC.50, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.50, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.50, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -312,6 +369,9 @@
     <t xml:space="preserve">ANCOM-BC.50, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.50, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.50, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -327,6 +387,9 @@
     <t xml:space="preserve">ANCOM-BC.100, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.100, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.100, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -342,6 +405,9 @@
     <t xml:space="preserve">ANCOM-BC.100, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.100, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.100, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -357,6 +423,9 @@
     <t xml:space="preserve">ANCOM-BC.100, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.100, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.100, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -372,6 +441,9 @@
     <t xml:space="preserve">ANCOM-BC.100, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.100, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.100, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -387,6 +459,9 @@
     <t xml:space="preserve">ANCOM-BC.100, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.100, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.100, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -402,6 +477,9 @@
     <t xml:space="preserve">ANCOM-BC.40, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.40, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.40, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -417,6 +495,9 @@
     <t xml:space="preserve">ANCOM-BC.40, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.40, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.40, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -432,6 +513,9 @@
     <t xml:space="preserve">ANCOM-BC.40, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.40, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.40, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -447,6 +531,9 @@
     <t xml:space="preserve">ANCOM-BC.40, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.40, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.40, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -462,6 +549,9 @@
     <t xml:space="preserve">ANCOM-BC.40, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.40, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.40, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -477,6 +567,9 @@
     <t xml:space="preserve">ANCOM-BC.60, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.60, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.60, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -492,6 +585,9 @@
     <t xml:space="preserve">ANCOM-BC.60, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.60, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.60, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -507,6 +603,9 @@
     <t xml:space="preserve">ANCOM-BC.60, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.60, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.60, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -522,6 +621,9 @@
     <t xml:space="preserve">ANCOM-BC.60, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.60, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.60, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -537,6 +639,9 @@
     <t xml:space="preserve">ANCOM-BC.60, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.60, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.60, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -552,6 +657,9 @@
     <t xml:space="preserve">ANCOM-BC.200, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.200, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.200, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -567,6 +675,9 @@
     <t xml:space="preserve">ANCOM-BC.200, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.200, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.200, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -582,6 +693,9 @@
     <t xml:space="preserve">ANCOM-BC.200, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.200, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.200, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -597,6 +711,9 @@
     <t xml:space="preserve">ANCOM-BC.200, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">CORNCOB.200, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LinDA.200, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -610,6 +727,9 @@
   </si>
   <si>
     <t xml:space="preserve">ANCOM-BC.200, 0.9 (N = 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNCOB.200, 0.9 (N = 100)</t>
   </si>
   <si>
     <t xml:space="preserve">LinDA.200, 0.9 (N = 100)</t>
@@ -1503,6 +1623,81 @@
       <c r="DU1" t="s">
         <v>124</v>
       </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1515,82 +1710,82 @@
         <v>0.92</v>
       </c>
       <c r="D2" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.77</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.87</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.82</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.92</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.72</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.09</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.86</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.8</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.9</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.71</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>0.09</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>0.87</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>0.93</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.81</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>0.15</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>0.94</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>0.86</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>0.91</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.62</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.95</v>
       </c>
       <c r="AD2" t="n">
         <v>0.4</v>
@@ -1605,279 +1800,354 @@
         <v>0.94</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.95</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.45</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0.95</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AS2" t="n">
         <v>0.92</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AT2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU2" t="n">
         <v>0.92</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AV2" t="n">
         <v>0.39</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.97</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AY2" t="n">
         <v>0.95</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AZ2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BA2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
         <v>0.41</v>
       </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BE2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BF2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="BG2" t="n">
         <v>0.71</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BH2" t="n">
         <v>0.7</v>
       </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BK2" t="n">
         <v>0.97</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.93</v>
       </c>
       <c r="BL2" t="n">
         <v>0.96</v>
       </c>
       <c r="BM2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>0.6</v>
       </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="CC2" t="n">
         <v>0.96</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CD2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CE2" t="n">
         <v>0.98</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CF2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
         <v>0.98</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CI2" t="n">
         <v>0.96</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CJ2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CK2" t="n">
         <v>0.74</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CL2" t="n">
         <v>0.78</v>
       </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.83</v>
-      </c>
       <c r="CM2" t="n">
         <v>1</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="CO2" t="n">
         <v>0.97</v>
       </c>
       <c r="CP2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0.99</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="DJ2" t="n">
         <v>0.69</v>
       </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
         <v>0.98</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DM2" t="n">
         <v>0.97</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DN2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="DO2" t="n">
         <v>0.76</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DP2" t="n">
         <v>0.96</v>
       </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" t="n">
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
         <v>0.98</v>
       </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
+      <c r="DT2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
         <v>0.96</v>
       </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DZ2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="EA2" t="n">
         <v>0.99</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EB2" t="n">
         <v>0.95</v>
       </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EE2" t="n">
         <v>0.94</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EF2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="EG2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EH2" t="n">
         <v>0.92</v>
       </c>
-      <c r="DL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" t="n">
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
         <v>0.98</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="EK2" t="n">
         <v>0.98</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="EL2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="EM2" t="n">
         <v>0.99</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="EN2" t="n">
         <v>0.85</v>
       </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
+      <c r="EO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EQ2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ER2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="ES2" t="n">
         <v>0.73</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="ET2" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -1892,85 +2162,85 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.15</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
       </c>
       <c r="H3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.26</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.15</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.15</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.11</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.16</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.24</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.13</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.13</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.16</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.29</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>0.11</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>0.14</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
         <v>0.14</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AB3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
         <v>0.44</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.41</v>
       </c>
       <c r="AE3" t="n">
         <v>0.01</v>
@@ -1982,279 +2252,354 @@
         <v>0.08</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AM3" t="n">
         <v>0.08</v>
       </c>
       <c r="AN3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.42</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AY3" t="n">
         <v>0.07</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AZ3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BA3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BB3" t="n">
         <v>0.39</v>
       </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="BE3" t="n">
         <v>0.11</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="BF3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BG3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BH3" t="n">
         <v>0.41</v>
       </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BN3" t="n">
         <v>0.36</v>
       </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BF3" t="n">
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>0.06</v>
       </c>
-      <c r="BG3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BH3" t="n">
+      <c r="BR3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BT3" t="n">
         <v>0.35</v>
       </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BK3" t="n">
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW3" t="n">
         <v>0.06</v>
       </c>
-      <c r="BL3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BM3" t="n">
+      <c r="BX3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>0.37</v>
       </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BP3" t="n">
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CC3" t="n">
         <v>0.05</v>
       </c>
-      <c r="BQ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BR3" t="n">
+      <c r="CD3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0.36</v>
       </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BU3" t="n">
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CI3" t="n">
         <v>0.06</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CJ3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CK3" t="n">
         <v>0.05</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CL3" t="n">
         <v>0.36</v>
       </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BZ3" t="n">
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CO3" t="n">
         <v>0.05</v>
       </c>
-      <c r="CA3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CB3" t="n">
+      <c r="CP3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CR3" t="n">
         <v>0.26</v>
       </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CE3" t="n">
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU3" t="n">
         <v>0.05</v>
       </c>
-      <c r="CF3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CG3" t="n">
+      <c r="CV3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CX3" t="n">
         <v>0.25</v>
       </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CJ3" t="n">
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DA3" t="n">
         <v>0.06</v>
       </c>
-      <c r="CK3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CL3" t="n">
+      <c r="DB3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DD3" t="n">
         <v>0.28</v>
       </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CQ3" t="n">
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>0.36</v>
       </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CU3" t="n">
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="DO3" t="n">
         <v>0.06</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DP3" t="n">
         <v>0.18</v>
       </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DA3" t="n">
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DV3" t="n">
         <v>0.12</v>
       </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DF3" t="n">
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EB3" t="n">
         <v>0.15</v>
       </c>
-      <c r="DG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DK3" t="n">
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EH3" t="n">
         <v>0.19</v>
       </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DP3" t="n">
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EN3" t="n">
         <v>0.29</v>
       </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DU3" t="n">
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="ET3" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2269,369 +2614,444 @@
         <v>0.26</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
       <c r="E4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.07</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="G4" t="n">
         <v>0.03</v>
       </c>
       <c r="H4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.23</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="J4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.08</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="M4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.17</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="R4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="X4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.11</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.18</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AH4" t="n">
-        <v>0.09</v>
+        <v>0.29</v>
       </c>
       <c r="AI4" t="n">
         <v>0.09</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AT4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AV4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AX4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
         <v>0.32</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BL4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.14</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BN4" t="n">
         <v>0.12</v>
       </c>
-      <c r="BD4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
+      <c r="BO4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.3</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BR4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BS4" t="n">
         <v>0.15</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BT4" t="n">
         <v>0.1</v>
       </c>
-      <c r="BI4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
+      <c r="BU4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
         <v>0.22</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BX4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BY4" t="n">
         <v>0.12</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BZ4" t="n">
         <v>0.08</v>
       </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
         <v>0.06</v>
       </c>
-      <c r="BQ4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BV4" t="n">
+      <c r="CD4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CK4" t="n">
         <v>0.11</v>
       </c>
-      <c r="BW4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BX4" t="n">
+      <c r="CL4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CM4" t="n">
         <v>0.05</v>
       </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
         <v>0.54</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CP4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>0.31</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CR4" t="n">
         <v>0.19</v>
       </c>
-      <c r="CC4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
+      <c r="CS4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
         <v>0.48</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CV4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="CW4" t="n">
         <v>0.26</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CX4" t="n">
         <v>0.2</v>
       </c>
-      <c r="CH4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
+      <c r="CY4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
         <v>0.37</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DB4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DC4" t="n">
         <v>0.24</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DD4" t="n">
         <v>0.1</v>
       </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
+      <c r="DE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
         <v>0.1</v>
       </c>
-      <c r="CP4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CU4" t="n">
+      <c r="DH4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DN4" t="n">
         <v>0.1</v>
       </c>
-      <c r="CV4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CW4" t="n">
+      <c r="DO4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DQ4" t="n">
         <v>0.18</v>
       </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
+      <c r="DR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="n">
         <v>0.72</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DT4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DU4" t="n">
         <v>0.63</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DV4" t="n">
         <v>0.4</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DW4" t="n">
         <v>0.16</v>
       </c>
-      <c r="DC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="n">
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>0.7</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DZ4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EA4" t="n">
         <v>0.62</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EB4" t="n">
         <v>0.36</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EC4" t="n">
         <v>0.08</v>
       </c>
-      <c r="DH4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DI4" t="n">
+      <c r="ED4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EE4" t="n">
         <v>0.56</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="EF4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EG4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="EH4" t="n">
         <v>0.24</v>
       </c>
-      <c r="DL4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DN4" t="n">
+      <c r="EI4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EK4" t="n">
         <v>0.22</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="EL4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="EM4" t="n">
         <v>0.17</v>
       </c>
-      <c r="DP4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DT4" t="n">
+      <c r="EN4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ES4" t="n">
         <v>0.11</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="ET4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2646,369 +3066,444 @@
         <v>0.34</v>
       </c>
       <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.14</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.24</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.14</v>
       </c>
       <c r="G5" t="n">
         <v>0.14</v>
       </c>
       <c r="H5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.32</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.14</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.12</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.13</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.25</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.11</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>0.14</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.09</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.05</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>0.09</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Y5" t="n">
         <v>0.01</v>
       </c>
       <c r="Z5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AG5" t="n">
         <v>0.31</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AH5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.21</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AJ5" t="n">
         <v>0.29</v>
       </c>
-      <c r="AE5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AK5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0.29</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AN5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.2</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AP5" t="n">
         <v>0.24</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AQ5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.21</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AT5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU5" t="n">
         <v>0.15</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AV5" t="n">
         <v>0.18</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AW5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY5" t="n">
         <v>0.06</v>
       </c>
-      <c r="AR5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="AZ5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BB5" t="n">
         <v>0.07</v>
       </c>
-      <c r="AT5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="BC5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.09</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
         <v>0.35</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BL5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BM5" t="n">
         <v>0.25</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BN5" t="n">
         <v>0.28</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BO5" t="n">
         <v>0.07</v>
       </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>0.34</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BR5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BS5" t="n">
         <v>0.26</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BT5" t="n">
         <v>0.23</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BU5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BV5" t="n">
         <v>0.05</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BW5" t="n">
         <v>0.28</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BX5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY5" t="n">
         <v>0.22</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BZ5" t="n">
         <v>0.2</v>
       </c>
-      <c r="BN5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BP5" t="n">
+      <c r="CA5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.1</v>
       </c>
-      <c r="BQ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BX5" t="n">
+      <c r="CD5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CM5" t="n">
         <v>0.1</v>
       </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
         <v>0.35</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CP5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CQ5" t="n">
         <v>0.33</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CR5" t="n">
         <v>0.31</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CS5" t="n">
         <v>0.08</v>
       </c>
-      <c r="CD5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CE5" t="n">
+      <c r="CT5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU5" t="n">
         <v>0.35</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CV5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="CW5" t="n">
         <v>0.31</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CX5" t="n">
         <v>0.28</v>
       </c>
-      <c r="CH5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CJ5" t="n">
+      <c r="CY5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DA5" t="n">
         <v>0.3</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DB5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="DC5" t="n">
         <v>0.26</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DD5" t="n">
         <v>0.2</v>
       </c>
-      <c r="CM5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0.25</v>
-      </c>
       <c r="DE5" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="DG5" t="n">
         <v>0.11</v>
       </c>
       <c r="DH5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DI5" t="n">
         <v>0.06</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="EE5" t="n">
         <v>0.24</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="EF5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="EG5" t="n">
         <v>0.22</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="EH5" t="n">
         <v>0.27</v>
       </c>
-      <c r="DL5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DN5" t="n">
+      <c r="EI5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EK5" t="n">
         <v>0.13</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="EL5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EM5" t="n">
         <v>0.13</v>
       </c>
-      <c r="DP5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
+      <c r="EN5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3028,379 +3523,454 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="X1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Y1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="CS1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="CT1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="CU1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="CV1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="CW1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="CX1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="CY1" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="CZ1" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="DA1" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="DB1" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="DC1" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="DD1" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="DE1" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="DF1" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="DG1" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="DH1" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="DI1" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="DJ1" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="DK1" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="DL1" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="DM1" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="DN1" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="DO1" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="DP1" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>194</v>
-      </c>
       <c r="DQ1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="DR1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="DS1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="DT1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="DU1" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>219</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>222</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>224</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>226</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>228</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>229</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>230</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>232</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>233</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>234</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>237</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2">
@@ -3414,265 +3984,265 @@
         <v>0.91</v>
       </c>
       <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.79</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.93</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.75</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.88</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.79</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.52</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.9</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.72</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.88</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.86</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>0.62</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>0.94</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>0.77</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>0.87</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.82</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>0.58</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>0.95</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>0.77</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>0.79</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.63</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
         <v>0.78</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0.89</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AG2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AH2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.92</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AJ2" t="n">
         <v>0.98</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AM2" t="n">
         <v>0.95</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AN2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AP2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AQ2" t="n">
         <v>0.99</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AR2" t="n">
         <v>0.83</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AS2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AT2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AV2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.87</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AY2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AZ2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BA2" t="n">
         <v>0.94</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
         <v>0.9</v>
       </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
         <v>0.87</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BE2" t="n">
         <v>0.85</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BF2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BG2" t="n">
         <v>0.69</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BH2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>0.91</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BK2" t="n">
         <v>0.97</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BL2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BM2" t="n">
         <v>0.96</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BN2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
         <v>0.9</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.96</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.97</v>
       </c>
       <c r="BR2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BS2" t="n">
         <v>0.97</v>
       </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
       <c r="BT2" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="BX2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.98</v>
       </c>
       <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CE2" t="n">
         <v>0.97</v>
       </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.98</v>
-      </c>
       <c r="CF2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="CL2" t="n">
         <v>0.99</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
       </c>
       <c r="CM2" t="n">
         <v>1</v>
@@ -3684,61 +4254,61 @@
         <v>0.98</v>
       </c>
       <c r="CP2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CU2" t="n">
         <v>0.98</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CV2" t="n">
         <v>0.99</v>
       </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="CT2" t="n">
+      <c r="CW2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>0.89</v>
       </c>
-      <c r="CU2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
+      <c r="DA2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.96</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DC2" t="n">
         <v>0.99</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="DG2" t="n">
         <v>0.98</v>
       </c>
-      <c r="DA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
       <c r="DH2" t="n">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="DI2" t="n">
         <v>0.98</v>
@@ -3750,33 +4320,108 @@
         <v>1</v>
       </c>
       <c r="DL2" t="n">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="DM2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0.96</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DS2" t="n">
         <v>0.99</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DT2" t="n">
         <v>0.99</v>
       </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
+      <c r="DU2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="n">
         <v>0.97</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EQ2" t="n">
         <v>0.94</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ER2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="ES2" t="n">
         <v>0.86</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="ET2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,172 +4439,172 @@
         <v>0.11</v>
       </c>
       <c r="E3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.41</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.06</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.11</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.09</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.41</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.07</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.08</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.08</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>0.38</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.07</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.08</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.36</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>0.06</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>0.09</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
         <v>0.11</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AB3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
         <v>0.34</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AG3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AH3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AI3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AJ3" t="n">
         <v>0.09</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.07</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AM3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AN3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.16</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AQ3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AL3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AS3" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AV3" t="n">
         <v>0.11</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AX3" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AZ3" t="n">
         <v>0.05</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>0.05</v>
       </c>
-      <c r="BC3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BF3" t="n">
         <v>0.05</v>
       </c>
-      <c r="BF3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="BG3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -3968,88 +4613,88 @@
         <v>0.05</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="BM3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BN3" t="n">
         <v>0.1</v>
       </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
       <c r="BO3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0.05</v>
       </c>
       <c r="BW3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CD3" t="n">
         <v>0.05</v>
       </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="CE3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="CI3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>0.05</v>
       </c>
-      <c r="CJ3" t="n">
-        <v>0.02</v>
-      </c>
       <c r="CK3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
@@ -4058,10 +4703,10 @@
         <v>0.04</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="CQ3" t="n">
         <v>0.04</v>
@@ -4070,90 +4715,165 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DM3" t="n">
         <v>0.1</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DN3" t="n">
         <v>0.06</v>
       </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH3" t="n">
+      <c r="DO3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
         <v>0.05</v>
       </c>
-      <c r="DI3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DS3" t="n">
+      <c r="EE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>0.07</v>
       </c>
-      <c r="DT3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DU3" t="n">
+      <c r="ER3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="ET3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4168,369 +4888,444 @@
         <v>0.36</v>
       </c>
       <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.21</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.27</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.08</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.17</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.16</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.06</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.07</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.49</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AH4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AI4" t="n">
         <v>0.38</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AJ4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AE4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AK4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0.37</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AN4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AP4" t="n">
         <v>0.34</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0.27</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AT4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.15</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AV4" t="n">
         <v>0.23</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
         <v>0.09</v>
       </c>
-      <c r="AR4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AT4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="BC4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BE4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BF4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG4" t="n">
         <v>0.13</v>
       </c>
-      <c r="AX4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="BH4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BI4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
         <v>0.65</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BL4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.56</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BN4" t="n">
         <v>0.68</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BO4" t="n">
         <v>0.06</v>
       </c>
-      <c r="BE4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BF4" t="n">
+      <c r="BP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.51</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BR4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BS4" t="n">
         <v>0.39</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BT4" t="n">
         <v>0.42</v>
       </c>
-      <c r="BI4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
+      <c r="BU4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
         <v>0.39</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BX4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BY4" t="n">
         <v>0.23</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BZ4" t="n">
         <v>0.27</v>
       </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
         <v>0.16</v>
       </c>
-      <c r="BQ4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BR4" t="n">
+      <c r="CD4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0.08</v>
       </c>
-      <c r="BS4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BU4" t="n">
+      <c r="CG4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CI4" t="n">
         <v>0.06</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CJ4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CK4" t="n">
         <v>0.12</v>
       </c>
-      <c r="BW4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BX4" t="n">
+      <c r="CL4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CM4" t="n">
         <v>0.11</v>
       </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
         <v>0.81</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CP4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>0.77</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CR4" t="n">
         <v>0.79</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CS4" t="n">
         <v>0.09</v>
       </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
         <v>0.66</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CV4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CW4" t="n">
         <v>0.59</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CX4" t="n">
         <v>0.5</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CY4" t="n">
         <v>0.05</v>
       </c>
-      <c r="CI4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CJ4" t="n">
+      <c r="CZ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DA4" t="n">
         <v>0.54</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DB4" t="n">
         <v>0.4</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DC4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DD4" t="n">
         <v>0.31</v>
       </c>
-      <c r="CM4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
+      <c r="DE4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
         <v>0.24</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DH4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DI4" t="n">
         <v>0.06</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DJ4" t="n">
         <v>0.06</v>
       </c>
-      <c r="CR4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CT4" t="n">
+      <c r="DK4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM4" t="n">
         <v>0.07</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DN4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DO4" t="n">
         <v>0.12</v>
       </c>
-      <c r="CV4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CW4" t="n">
+      <c r="DP4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DQ4" t="n">
         <v>0.29</v>
       </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
+      <c r="DR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="n">
         <v>0.91</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DT4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="DU4" t="n">
         <v>0.92</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DV4" t="n">
         <v>0.83</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DW4" t="n">
         <v>0.21</v>
       </c>
-      <c r="DC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="n">
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>0.81</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DZ4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EA4" t="n">
         <v>0.78</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EB4" t="n">
         <v>0.54</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EC4" t="n">
         <v>0.12</v>
       </c>
-      <c r="DH4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DI4" t="n">
+      <c r="ED4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EE4" t="n">
         <v>0.68</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="EF4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="EG4" t="n">
         <v>0.61</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="EH4" t="n">
         <v>0.33</v>
       </c>
-      <c r="DL4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DN4" t="n">
+      <c r="EI4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EK4" t="n">
         <v>0.39</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="EL4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="EM4" t="n">
         <v>0.16</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="EN4" t="n">
         <v>0.07</v>
       </c>
-      <c r="DQ4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DS4" t="n">
+      <c r="EO4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EQ4" t="n">
         <v>0.08</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="ER4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ES4" t="n">
         <v>0.11</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="ET4" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4545,369 +5340,444 @@
         <v>0.39</v>
       </c>
       <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.27</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.35</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.04</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.33</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.18</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.21</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.09</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>0.25</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.1</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.13</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Z5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.07</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.38</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AH5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.37</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AJ5" t="n">
         <v>0.33</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AK5" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0.33</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AN5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.29</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AP5" t="n">
         <v>0.29</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AQ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.26</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AT5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AU5" t="n">
         <v>0.2</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AV5" t="n">
         <v>0.22</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AW5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
         <v>0.13</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AZ5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BA5" t="n">
         <v>0.05</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BB5" t="n">
         <v>0.1</v>
       </c>
-      <c r="AT5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BC5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BE5" t="n">
         <v>0.05</v>
       </c>
-      <c r="AW5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="BF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.11</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
         <v>0.35</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BL5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BM5" t="n">
         <v>0.36</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BN5" t="n">
         <v>0.26</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BO5" t="n">
         <v>0.1</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BP5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BQ5" t="n">
         <v>0.32</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BR5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS5" t="n">
         <v>0.3</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BT5" t="n">
         <v>0.26</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BU5" t="n">
         <v>0.05</v>
       </c>
-      <c r="BJ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BK5" t="n">
+      <c r="BV5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW5" t="n">
         <v>0.26</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BX5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY5" t="n">
         <v>0.22</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BZ5" t="n">
         <v>0.22</v>
       </c>
-      <c r="BN5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
+      <c r="CA5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.15</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CD5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="CE5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CF5" t="n">
         <v>0.12</v>
       </c>
-      <c r="BS5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BX5" t="n">
+      <c r="CG5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CM5" t="n">
         <v>0.15</v>
       </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
         <v>0.18</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CP5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CQ5" t="n">
         <v>0.25</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CR5" t="n">
         <v>0.13</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CS5" t="n">
         <v>0.12</v>
       </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
         <v>0.2</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CV5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CW5" t="n">
         <v>0.25</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CX5" t="n">
         <v>0.21</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CY5" t="n">
         <v>0.08</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CZ5" t="n">
         <v>0.07</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="DA5" t="n">
         <v>0.19</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DB5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="DC5" t="n">
         <v>0.22</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DD5" t="n">
         <v>0.2</v>
       </c>
-      <c r="CM5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CO5" t="n">
+      <c r="DE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DG5" t="n">
         <v>0.14</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DH5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="DI5" t="n">
         <v>0.08</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DJ5" t="n">
         <v>0.1</v>
       </c>
-      <c r="CR5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CW5" t="n">
+      <c r="DK5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DQ5" t="n">
         <v>0.21</v>
       </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DA5" t="n">
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="DV5" t="n">
         <v>0.09</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DW5" t="n">
         <v>0.18</v>
       </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>0.07</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DZ5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EA5" t="n">
         <v>0.06</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="EB5" t="n">
         <v>0.17</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="EC5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="ED5" t="n">
         <v>0.07</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="EE5" t="n">
         <v>0.07</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="EF5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EG5" t="n">
         <v>0.08</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="EH5" t="n">
         <v>0.19</v>
       </c>
-      <c r="DL5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="DN5" t="n">
+      <c r="EI5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EK5" t="n">
         <v>0.08</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="EL5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EM5" t="n">
         <v>0.1</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="EN5" t="n">
         <v>0.1</v>
       </c>
-      <c r="DQ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DU5" t="n">
+      <c r="EO5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="ET5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4927,304 +5797,304 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="U1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="V1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="W1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="X1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="Y1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="Z1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="AA1" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="AB1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="AC1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AD1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AE1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AF1" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AG1" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AH1" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AI1" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AJ1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AK1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AL1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AM1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AN1" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AO1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AP1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="AQ1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="AR1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="AS1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="AT1" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="AU1" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="AV1" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="AW1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="AX1" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AY1" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AZ1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="BA1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="BB1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="BC1" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="BD1" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="BE1" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="BF1" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="BG1" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="BH1" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="BI1" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="BJ1" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="BK1" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="BL1" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="BM1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="BN1" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="BO1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="BP1" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="BQ1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="BR1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="BS1" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="BT1" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="BU1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="BV1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="BW1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="BX1" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="BY1" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="BZ1" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="CA1" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="CB1" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="CC1" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="CD1" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="CE1" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="CF1" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="CG1" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="CH1" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="CI1" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="CJ1" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="CK1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="CL1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="CM1" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="CN1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="CO1" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="CP1" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="CQ1" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="CR1" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="CS1" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="CT1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="CU1" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="CV1" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -6451,154 +7321,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Q1" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="W1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="X1" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="Z1" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AA1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="AC1" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="AD1" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="AE1" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AF1" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="AG1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="AH1" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="AI1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="AJ1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="AK1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="AL1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="AM1" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="AN1" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="AO1" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AP1" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AQ1" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="AR1" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="AS1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="AT1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="AU1" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="AV1" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="AW1" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="AX1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -7225,154 +8095,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Q1" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="W1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="X1" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="Z1" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AA1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="AC1" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="AD1" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="AE1" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AF1" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="AG1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="AH1" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="AI1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="AJ1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="AK1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="AL1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="AM1" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="AN1" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="AO1" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AP1" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AQ1" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="AR1" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="AS1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="AT1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="AU1" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="AV1" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="AW1" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="AX1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
